--- a/forecast_summary_B0D8WH39QJ.xlsx
+++ b/forecast_summary_B0D8WH39QJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>476.7776984910838</v>
       </c>
       <c r="D2" t="n">
-        <v>500.8036176619307</v>
+        <v>502.9173097469096</v>
       </c>
       <c r="E2" t="n">
         <v>77</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>617.267581456604</v>
       </c>
       <c r="D3" t="n">
-        <v>640.239412265094</v>
+        <v>642.703329724063</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>595.748443228955</v>
       </c>
       <c r="D4" t="n">
-        <v>621.9933666861912</v>
+        <v>619.8958412975567</v>
       </c>
       <c r="E4" t="n">
         <v>41</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>449.2152445615782</v>
       </c>
       <c r="D5" t="n">
-        <v>473.5694943877924</v>
+        <v>472.9892428745359</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>295.0753785101837</v>
       </c>
       <c r="D6" t="n">
-        <v>320.6892572944636</v>
+        <v>321.3673913357326</v>
       </c>
       <c r="E6" t="n">
         <v>35</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C7" t="n">
         <v>226.8271384063441</v>
       </c>
       <c r="D7" t="n">
-        <v>251.143967106995</v>
+        <v>254.4008878194437</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C8" t="n">
         <v>257.0635847934345</v>
       </c>
       <c r="D8" t="n">
-        <v>281.3627693742626</v>
+        <v>281.5795031073794</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>343.2065172390195</v>
       </c>
       <c r="D9" t="n">
-        <v>369.8952225888958</v>
+        <v>366.1557108600814</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>433.969721682656</v>
       </c>
       <c r="D10" t="n">
-        <v>458.5147455765151</v>
+        <v>457.8586016026086</v>
       </c>
       <c r="E10" t="n">
         <v>38</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>483.8849817647881</v>
       </c>
       <c r="D11" t="n">
-        <v>508.0040066961903</v>
+        <v>509.276492746912</v>
       </c>
       <c r="E11" t="n">
         <v>55</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>460.7509089964911</v>
       </c>
       <c r="D12" t="n">
-        <v>484.5460596805682</v>
+        <v>486.5188373951517</v>
       </c>
       <c r="E12" t="n">
         <v>65</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>380.520922268021</v>
       </c>
       <c r="D13" t="n">
-        <v>404.9744851980242</v>
+        <v>407.0305337300025</v>
       </c>
       <c r="E13" t="n">
         <v>66</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>326.8146402493506</v>
       </c>
       <c r="D14" t="n">
-        <v>353.1788851482081</v>
+        <v>350.9842121431773</v>
       </c>
       <c r="E14" t="n">
         <v>65</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>385.8074327632298</v>
       </c>
       <c r="D15" t="n">
-        <v>412.608563144177</v>
+        <v>411.0047632754529</v>
       </c>
       <c r="E15" t="n">
         <v>63</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>534.4145734855007</v>
       </c>
       <c r="D16" t="n">
-        <v>558.3163349238463</v>
+        <v>560.1199244892174</v>
       </c>
       <c r="E16" t="n">
         <v>64</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>627.5884833018459</v>
       </c>
       <c r="D17" t="n">
-        <v>652.2603114610948</v>
+        <v>652.7209870079623</v>
       </c>
       <c r="E17" t="n">
         <v>63</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>550.1974806977934</v>
       </c>
       <c r="D18" t="n">
-        <v>575.1894368693561</v>
+        <v>575.4513883033059</v>
       </c>
       <c r="E18" t="n">
         <v>60</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>379.9566364731329</v>
       </c>
       <c r="D19" t="n">
-        <v>405.5417917884324</v>
+        <v>406.526836008629</v>
       </c>
       <c r="E19" t="n">
         <v>59</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>336.7246287315974</v>
       </c>
       <c r="D20" t="n">
-        <v>361.469438165449</v>
+        <v>362.0098223589537</v>
       </c>
       <c r="E20" t="n">
         <v>70</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>525.102265954611</v>
       </c>
       <c r="D21" t="n">
-        <v>549.3155229907793</v>
+        <v>549.6981078708419</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 GAMING PLUS AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>6935</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3281</t>
+          <t>3283</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>230</t>
         </is>
       </c>
     </row>
